--- a/resources/experiment 1/metrics/MAPE/incidence/Infarto de Miocardio (INC).xlsx
+++ b/resources/experiment 1/metrics/MAPE/incidence/Infarto de Miocardio (INC).xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2240730911947775</v>
+        <v>0.2240730911947776</v>
       </c>
       <c r="C2" t="n">
         <v>0.2240730911947776</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1394786269634925</v>
+        <v>0.1657081008439971</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1395676679188156</v>
+        <v>0.1552878192046485</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1395676679188156</v>
+        <v>0.1662867392806648</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08485937583199755</v>
+        <v>0.1820579342582942</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08485937583199754</v>
+        <v>0.1826762870675177</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08485937583199754</v>
+        <v>0.1672690861103096</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2363528470737664</v>
+        <v>0.167039699821732</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2360816776682799</v>
+        <v>0.1408758275932796</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2360816776682799</v>
+        <v>0.1764768898534349</v>
       </c>
     </row>
   </sheetData>
